--- a/Dataset/Folds/Fold_5/Excel/88.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/88.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="85">
   <si>
     <t>Doi</t>
   </si>
@@ -608,25 +608,25 @@
         <v>39783.0</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
@@ -640,25 +640,25 @@
         <v>1996.0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
@@ -672,28 +672,28 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -704,25 +704,25 @@
         <v>42248.0</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
